--- a/src/test/java/com/companyname/projectname/Data/TestSuite1.xlsx
+++ b/src/test/java/com/companyname/projectname/Data/TestSuite1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/Documents/video/KeywordDriverFramework/src/test/java/com/companyname/projectname/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/keywordDrivenFramework/src/test/java/com/companyname/projectname/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>TCID</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Enter Your Address Zip Code</t>
   </si>
   <si>
-    <t>Select Your Address Country</t>
-  </si>
-  <si>
     <t>Enter Your Address Mobile Phone</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>registration.yourAddressPostalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">registration.yourAddressCountryName </t>
-  </si>
-  <si>
     <t>registration.yourAddressPhoneNumber</t>
   </si>
   <si>
@@ -328,9 +322,6 @@
     <t>Click on Craete An Account</t>
   </si>
   <si>
-    <t>TS20</t>
-  </si>
-  <si>
     <t>TS21</t>
   </si>
   <si>
@@ -356,6 +347,18 @@
   </si>
   <si>
     <t>Waiting for</t>
+  </si>
+  <si>
+    <t>TS23</t>
+  </si>
+  <si>
+    <t>Verify Registor Message</t>
+  </si>
+  <si>
+    <t>registration.sucessMsg</t>
+  </si>
+  <si>
+    <t>SucessMsg</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -444,6 +447,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -748,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,7 +774,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -784,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -811,7 +815,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -888,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -908,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -928,7 +932,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -939,19 +943,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -966,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1041,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1055,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -1072,17 +1076,18 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1092,10 +1097,10 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1112,13 +1117,13 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1132,13 +1137,13 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1152,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -1175,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1209,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1223,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1243,13 +1248,13 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1263,13 +1268,13 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1283,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1303,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1323,18 +1328,18 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -1343,18 +1348,18 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -1363,47 +1368,50 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
